--- a/src/test/resources/showcase/artifact/data/ws.async-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/ws.async-showcase.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E9810-BC0A-984E-B022-0845A42EF3BB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CC5A9-F421-F64B-90AC-242E7FE30BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-21160" windowWidth="38400" windowHeight="7040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="28800" windowHeight="35540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -49,45 +49,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
   </si>
   <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
     <t>nexial.openResult</t>
-  </si>
-  <si>
-    <t>nexial.ws.enableRedirects</t>
   </si>
   <si>
     <t>nexial.ws.async.shutdownWaitMs</t>
@@ -583,24 +559,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -608,99 +584,81 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
+    <row r="6" spans="1:703" ht="23" customHeight="1"/>
+    <row r="7" spans="1:703" ht="23" customHeight="1"/>
+    <row r="8" spans="1:703" ht="23" customHeight="1"/>
+    <row r="9" spans="1:703" ht="23" customHeight="1"/>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -714,7 +672,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B8 B10:B1048576 C9">
+  <conditionalFormatting sqref="B5:B1048576 C4 B1:B3">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
